--- a/UiPathAcademy/leccion 9/practica2/Consolidated.xlsx
+++ b/UiPathAcademy/leccion 9/practica2/Consolidated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -83,7 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -387,121 +388,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
         <v>80</v>
       </c>
     </row>
